--- a/ReviewComments.xlsx
+++ b/ReviewComments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Preeti\Github\CapstoneProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151698F7-EE91-43E0-9CEB-5D7C56B30763}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD3DA3A-D4B3-4FFC-9C21-2BF1DA613456}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{7DF18158-3F70-448A-9C64-3BA59C77B605}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Missing content for sction 4.1</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Description of review</t>
-  </si>
-  <si>
-    <t>status</t>
   </si>
   <si>
     <t>#</t>
@@ -143,28 +140,6 @@
 The authors might consider expanding the tutorial sections accordingly to demonstrate:
 “For our unsupervised learning we look at the top pedestrian safety issues in each cluster. Vehicles running red lights or stop signs is a concern for the blue cluster neighborhoods, including: Westwood, Mt. Washington and East End. Heavy traffic is a prominent issue in the green cluster and affects Over-The- Rhine, Mt. Auburn and Central Business District neighborhoods. There is a need for increased number of sidewalks in Clifton, Madisonville, Walnut Hills and Mt. Washington. Over-the-Rhine, Downtown and Clifton need more bike
 friendly zones.”</t>
-  </si>
-  <si>
-    <t>Current Introduction length: 1.3 pages. Consider expanding it to 2-4 pages.
-Executive summary: The introduction presents and justifies the problem in a well-written form, it provides enough
-references and literacy which supports the need to attend a significant and public problem. The authors however
-might consider expanding on the work, methods and solutions developed and presented in their research.
-In the following sentence consider changing characteristics:a to characteristics: a
-“A walkable neighborhood is a neighborhood with the following characteristics:a center (either a main street or
-public space), sufficient population density to support local businesses and public transit, affordable housing, public
-spaces, streets designed for bicyclists and pedestrians, and schools and workplaces within walking distance for
-residents [3]”.
-Your introduction is incomplete
-i. Engels provided a solid template for authors to follow (“How to Write a
-Research Paper”). I would suggest you attempt to follow it unless you have a
-compelling reason not to:
-1. 1 Paragraph Motivation (sets the general problem domain)
-2. 1 Paragraph Problem Statement (specific problem solved by the work)
-3. 2-3 Paragraphs on solution MISSING
-4. 1 Paragraph on main results (plural) MISSING
-5. 1 Paragraph on main conclusions (plural) MISSING
-6. 1 Paragraph on paper organization MISSING
-Footnotes: consider reformatting footnotes according to the guidelines provided in MSDSJournalPaperTemplate.</t>
   </si>
   <si>
     <t>a. Table 1
@@ -179,11 +154,6 @@
 c. Actual Cost
 i. How are you getting these values? Aren’t you actually using modeled values? There is no way for you to know what the actual economic and quality-of-living
 costs are for each incident, right? This is pretty misleading.</t>
-  </si>
-  <si>
-    <t>Data Sets: Consider adding the source of the following data sets “Cincinnati pedestrian safety survey data” , “Pedestrian near miss data” and all of the Cincinnati open data datasets.
-Walk Score : i. I don’t fully understand how this is relevant or how it relates to pedestrian safety? Is it a proxy for how much walking occupants of a given area are
-assumed to be doing? The website says it is a measure of how many amenities are within walkable distance.</t>
   </si>
   <si>
     <t>section 4.3: I would have liked to see some exploratory data visualization here to show the data conforms to assumptions of parametric model (Histogram / Quantile plots)
@@ -203,6 +173,162 @@
 iii. Did you perform a test to prove that one model is better than the other (for example, an F-test)? Or why is the reader to believe that the model with fewer
 variables is superior?
 l. “Fig. 1: Spread of data visulized using t-sne.”</t>
+  </si>
+  <si>
+    <t>Additional statements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Current Introduction length: 1.3 pages. Consider expanding it to 2-4 pages.
+Executive summary: The introduction presents and justifies the problem in a well-written form, it provides enough
+references and literacy which supports the need to attend a significant and public problem. The authors however
+might consider expanding on the work, methods and solutions developed and presented in their research.
+In the following sentence consider changing characteristics:a to characteristics: a
+“A walkable neighborhood is a neighborhood with the following characteristics:a center (either a main street or
+public space), sufficient population density to support local businesses and public transit, affordable housing, public
+spaces, streets designed for bicyclists and pedestrians, and schools and workplaces within walking distance for
+residents [3]”.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Your introduction is incomplete
+i. Engels provided a solid template for authors to follow (“How to Write a
+Research Paper”). I would suggest you attempt to follow it unless you have a
+compelling reason not to:
+1. 1 Paragraph Motivation (sets the general problem domain)
+2. 1 Paragraph Problem Statement (specific problem solved by the work)
+3. 2-3 Paragraphs on solution MISSING
+4. 1 Paragraph on main results (plural) MISSING
+5. 1 Paragraph on main conclusions (plural) MISSING
+6. 1 Paragraph on paper organization MISSING
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Footnotes: consider reformatting footnotes according to the guidelines provided in MSDSJournalPaperTemplate.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Place holder for supervized learning solution&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The unsupervized learning we have generated clusters of pedestrian saftey issues and visulized them on the grid map of Cincinatti
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Place holder for supervized learning results&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+unsupervized learning results
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Place holder for supervized learning conclusion&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+unsupervized learning conclusion
+The rest of the paper is organized as follows. In Section 2 we talking about Pedestrian saftey and cost associated with injury. In section 3 we will present how we developed the grid cell approach to plotting data on cincinati shape file. We mention on how we aquired data, going in-depth on the open cincinati datasources. In section 4 we explore on the various models we created. The results of which are mentioned in Section 5. Section 6 talks about our analysis work followed by ethics in section 7. Conclusion and future work in section 8. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Sets: Consider adding the source of the following data sets “Cincinnati pedestrian safety survey data” , “Pedestrian near miss data” and all of the Cincinnati open data datasets.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Walk Score : i. I don’t fully understand how this is relevant or how it relates to pedestrian safety? Is it a proxy for how much walking occupants of a given area are
+assumed to be doing? The website says it is a measure of how many amenities are within walkable distance.</t>
+    </r>
+  </si>
+  <si>
+    <t>Have updated the table for source as "Cincinati City Council"</t>
+  </si>
+  <si>
+    <t>Not relevent anymore as information has been added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average complaints/service requests is dominatly in cluster 0/Blue cluster with almost 42% of requests. While red cluster is a little over 25% of complains/requests.Cluster 0 is also highly populated area compared to cluster 2 which correlates with the average complains/requests.
+Cluster 2/Red cluster has range of street counts, Cluster 0 / Blue cluster has more number of streets per grid
+Cluster 1/Greed cluster has high number of commerical properties, while cluster 2/Red cluster has very low commercial properties
+Top issues in each cluster
+Cluster 0/ Blue: Water leak, traffic signal, Construction related, Street sidewalks
+Cluster 1/Green: Trees and plants, building related, Food related, Police property related
+Cluster 2/Red:  Zoning Parking, animals and insects , Thrash and service complaints
+</t>
   </si>
 </sst>
 </file>
@@ -569,63 +695,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DBBD8A-2EFE-4881-9B98-B758C7D7D648}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="133" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="112.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -650,7 +794,7 @@
         <v>4.3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -658,7 +802,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -666,7 +810,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -674,7 +821,7 @@
         <v>5.2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -682,7 +829,7 @@
         <v>5.3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
@@ -690,7 +837,7 @@
         <v>5.4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -698,7 +845,7 @@
         <v>6.1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -706,10 +853,10 @@
         <v>6.1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
         <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -717,7 +864,7 @@
         <v>6.2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -725,15 +872,18 @@
         <v>6.3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="216" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="244.8" x14ac:dyDescent="0.3">
@@ -741,10 +891,10 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
